--- a/image.xlsx
+++ b/image.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Member1\avail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Member1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C3C977-21B3-4346-855D-819A499E3C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B803B9-7434-4DF8-9FF5-4CF2F689279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61405DB3-D596-4D98-A199-CFCBC4B83BA3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61405DB3-D596-4D98-A199-CFCBC4B83BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ツリー作成" sheetId="1" r:id="rId1"/>
     <sheet name="不明点" sheetId="2" r:id="rId2"/>
+    <sheet name="DB" sheetId="3" r:id="rId3"/>
+    <sheet name="API" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>ROOT</t>
     <phoneticPr fontId="1"/>
@@ -165,37 +167,6 @@
   </si>
   <si>
     <t>ALDーA0002Z000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALD-AA001Z000を他のツリーで流用する場合、他のツリーですでに登録されているBOMを選択してぶら下げるか、こぴーして貼り付けか</t>
-    <rPh sb="14" eb="15">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>リュウヨウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ツ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -449,12 +420,206 @@
     <t>ALD-A0001</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>タイヤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナット＊５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホイール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤゴム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAIYA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAIYAGOMU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHEEL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記の場合、ナットはどうやって表現するか</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイヤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NATTO＊５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左図のようになるのか？</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>母数</t>
+    <rPh sb="0" eb="2">
+      <t>ボスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>員数</t>
+    <rPh sb="0" eb="2">
+      <t>インスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pdm_tree</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>group_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deep_level</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>parent_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pdm_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>en_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code_header_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pdm_codeheader</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code_header</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コード取得</t>
+    <rPh sb="3" eb="5">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>code_header_id</t>
+  </si>
+  <si>
+    <t>ツリー登録</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +666,23 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -522,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -647,13 +829,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,7 +914,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3767,8 +3973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52E24FF-6755-4099-99CC-5D954E9D4910}">
   <dimension ref="B3:BO87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE49" sqref="BE49"/>
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4178,7 +4384,7 @@
     <row r="39" spans="2:67" x14ac:dyDescent="0.4">
       <c r="B39" s="5"/>
       <c r="G39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U39" s="6"/>
       <c r="Y39" s="5"/>
@@ -4214,7 +4420,7 @@
       <c r="U41" s="6"/>
       <c r="Y41" s="5"/>
       <c r="AA41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL41" s="11" t="s">
         <v>22</v>
@@ -4230,12 +4436,12 @@
       <c r="U42" s="6"/>
       <c r="Y42" s="5"/>
       <c r="AA42" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB42" s="3"/>
       <c r="AC42" s="4"/>
       <c r="AE42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF42" s="3"/>
       <c r="AG42" s="4"/>
@@ -4248,10 +4454,8 @@
       <c r="U43" s="6"/>
       <c r="Y43" s="5"/>
       <c r="AA43" s="5"/>
-      <c r="AB43" s="21"/>
       <c r="AC43" s="6"/>
       <c r="AE43" s="5"/>
-      <c r="AF43" s="21"/>
       <c r="AG43" s="6"/>
       <c r="AR43" s="6"/>
       <c r="AV43" s="5"/>
@@ -4381,22 +4585,22 @@
       <c r="B49" s="5"/>
       <c r="U49" s="6"/>
       <c r="Y49" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA49" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AB49" s="12"/>
       <c r="AC49" s="12"/>
       <c r="AD49" s="13"/>
       <c r="AG49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI49" s="11"/>
       <c r="AJ49" s="12"/>
       <c r="AK49" s="13"/>
       <c r="AM49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AO49" s="11"/>
       <c r="AP49" s="12"/>
@@ -4422,13 +4626,13 @@
       </c>
       <c r="U51" s="6"/>
       <c r="Y51" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA51" s="11"/>
       <c r="AB51" s="12"/>
       <c r="AC51" s="13"/>
       <c r="AG51" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="12"/>
@@ -4451,13 +4655,13 @@
       <c r="B53" s="5"/>
       <c r="U53" s="6"/>
       <c r="Y53" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA53" s="11"/>
       <c r="AB53" s="12"/>
       <c r="AC53" s="13"/>
       <c r="AG53" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ53" s="11"/>
       <c r="AK53" s="12"/>
@@ -4474,19 +4678,19 @@
       <c r="B55" s="5"/>
       <c r="U55" s="6"/>
       <c r="Y55" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA55" s="11"/>
       <c r="AB55" s="12"/>
       <c r="AC55" s="13"/>
       <c r="AG55" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AJ55" s="11"/>
       <c r="AK55" s="12"/>
       <c r="AL55" s="13"/>
       <c r="AM55" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AP55" s="11"/>
       <c r="AQ55" s="12"/>
@@ -4503,19 +4707,19 @@
       <c r="B57" s="5"/>
       <c r="U57" s="6"/>
       <c r="Y57" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA57" s="11"/>
       <c r="AB57" s="12"/>
       <c r="AC57" s="13"/>
       <c r="AG57" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AJ57" s="11"/>
       <c r="AK57" s="12"/>
       <c r="AL57" s="13"/>
       <c r="AM57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AP57" s="11"/>
       <c r="AQ57" s="12"/>
@@ -4550,13 +4754,13 @@
       <c r="T59" s="9"/>
       <c r="U59" s="10"/>
       <c r="Y59" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z59" s="17"/>
       <c r="AA59" s="17"/>
       <c r="AB59" s="18"/>
       <c r="AC59" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AD59" s="19"/>
       <c r="AE59" s="20"/>
@@ -4584,13 +4788,13 @@
       <c r="AQ60" s="9"/>
       <c r="AR60" s="9"/>
       <c r="AS60" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AT60" s="13"/>
     </row>
     <row r="63" spans="2:67" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="2:67" x14ac:dyDescent="0.4">
@@ -4675,7 +4879,7 @@
     <row r="66" spans="2:67" x14ac:dyDescent="0.4">
       <c r="B66" s="5"/>
       <c r="D66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U66" s="6"/>
       <c r="Y66" s="5"/>
@@ -4697,7 +4901,7 @@
       <c r="AR66" s="6"/>
       <c r="AV66" s="5"/>
       <c r="AX66" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BO66" s="6"/>
     </row>
@@ -4791,7 +4995,7 @@
       <c r="U71" s="6"/>
       <c r="Y71" s="5"/>
       <c r="AA71" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AL71" s="11" t="s">
         <v>22</v>
@@ -4807,7 +5011,7 @@
       <c r="U72" s="6"/>
       <c r="Y72" s="5"/>
       <c r="AA72" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB72" s="3"/>
       <c r="AC72" s="4"/>
@@ -4900,54 +5104,54 @@
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C82" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C84" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H87" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -4959,10 +5163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61305482-AB1D-4CD7-B83E-12434886C630}">
-  <dimension ref="C3"/>
+  <dimension ref="C3:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4970,9 +5174,413 @@
     <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.4">
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8932A-2C97-416D-AEC1-61B78AD35FE5}">
+  <dimension ref="A2:K10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" customWidth="1"/>
+    <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AD404-92D8-437B-8E24-F0DF55646AEE}">
+  <dimension ref="B3:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/image.xlsx
+++ b/image.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Member1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B803B9-7434-4DF8-9FF5-4CF2F689279F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DE4318-F3F4-4246-8196-028E977596BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{61405DB3-D596-4D98-A199-CFCBC4B83BA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61405DB3-D596-4D98-A199-CFCBC4B83BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ツリー作成" sheetId="1" r:id="rId1"/>
@@ -3671,6 +3671,50 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>229285</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>210049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279EC157-0E78-6946-0C6A-3ED33AE9AA04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="3543300"/>
+          <a:ext cx="4906060" cy="3572374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3973,8 +4017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52E24FF-6755-4099-99CC-5D954E9D4910}">
   <dimension ref="B3:BO87"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T83" sqref="T83"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AW22" sqref="AW22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5333,7 +5377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8932A-2C97-416D-AEC1-61B78AD35FE5}">
   <dimension ref="A2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>

--- a/image.xlsx
+++ b/image.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Member1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Member1\Desktop\django_vue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DE4318-F3F4-4246-8196-028E977596BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DB9BDD-0D3D-4F07-B2C0-D735ADAA3D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61405DB3-D596-4D98-A199-CFCBC4B83BA3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61405DB3-D596-4D98-A199-CFCBC4B83BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ツリー作成" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
   <si>
     <t>ROOT</t>
     <phoneticPr fontId="1"/>
@@ -333,22 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>既存のデータ一覧も登録の対象になる。</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自由入力</t>
     <rPh sb="0" eb="2">
       <t>ジユウ</t>
@@ -611,6 +595,20 @@
     <t>ツリー登録</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入品</t>
+    <rPh sb="0" eb="3">
+      <t>コウニュウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存ツリー</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -947,23 +945,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052B82E4-38C1-85BB-271D-25BE0BA4FCA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D85984B-D4F7-44C4-A835-E00670E9BE2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,8 +969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590801" y="5467349"/>
-          <a:ext cx="1352550" cy="1552575"/>
+          <a:off x="2562225" y="12096750"/>
+          <a:ext cx="1466849" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1031,7 +1029,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・部品情報編集</a:t>
+            <a:t>・部品詳細情報編集</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -1055,6 +1053,72 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EE7478-5BFB-49FC-B1A6-CA01BBBC61D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2676525" y="8810625"/>
+          <a:ext cx="1466849" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
@@ -1063,19 +1127,11 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>コピーがほしい</a:t>
+            <a:t>・削除</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1084,14 +1140,144 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・自由入力</a:t>
+            <a:t>・部品詳細情報編集</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・部品を追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{052B82E4-38C1-85BB-271D-25BE0BA4FCA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="5467349"/>
+          <a:ext cx="1466849" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・部品詳細情報編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・部品を追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
@@ -1160,115 +1346,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>部品を右クリックするとメニューが出る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A937DCB5-495F-484B-B2A1-8647B5C5E48C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2590801" y="1419225"/>
-          <a:ext cx="1352550" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・削除</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・部品情報編集</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・部品を追加</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1907,115 +1984,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>部品を右クリックするとメニューが出る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E0A770-1FD6-417B-9CAC-934F84A271A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2590801" y="8801100"/>
-          <a:ext cx="1352550" cy="933450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・削除</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・部品情報編集</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・部品を追加</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3715,6 +3683,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CF8FA0-A03E-44E2-A6B1-DEAA18FFA16E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590801" y="1419225"/>
+          <a:ext cx="1466849" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・部品詳細情報編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・部品を追加</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4017,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52E24FF-6755-4099-99CC-5D954E9D4910}">
   <dimension ref="B3:BO87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW22" sqref="AW22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4326,7 +4408,7 @@
         <v>17</v>
       </c>
       <c r="AI35" s="1" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="AR35" s="6"/>
       <c r="AV35" s="5"/>
@@ -4428,7 +4510,7 @@
     <row r="39" spans="2:67" x14ac:dyDescent="0.4">
       <c r="B39" s="5"/>
       <c r="G39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U39" s="6"/>
       <c r="Y39" s="5"/>
@@ -4464,7 +4546,7 @@
       <c r="U41" s="6"/>
       <c r="Y41" s="5"/>
       <c r="AA41" s="1" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AL41" s="11" t="s">
         <v>22</v>
@@ -4480,12 +4562,12 @@
       <c r="U42" s="6"/>
       <c r="Y42" s="5"/>
       <c r="AA42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB42" s="3"/>
       <c r="AC42" s="4"/>
       <c r="AE42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AF42" s="3"/>
       <c r="AG42" s="4"/>
@@ -5148,54 +5230,54 @@
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C82" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C84" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C85" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="H85" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I86" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.4">
       <c r="H87" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5220,126 +5302,126 @@
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1">
         <v>5</v>
@@ -5347,24 +5429,24 @@
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -5396,140 +5478,140 @@
   <sheetData>
     <row r="2" spans="1:11" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
       <c r="E3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
         <v>80</v>
       </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
       <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
         <v>80</v>
-      </c>
-      <c r="J3" t="s">
-        <v>75</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" t="s">
         <v>81</v>
-      </c>
-      <c r="F6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
         <v>81</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5555,76 +5637,76 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>96</v>
-      </c>
       <c r="E4" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="24"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="24"/>
       <c r="C7" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="24"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="24"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/image.xlsx
+++ b/image.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Member1\Desktop\django_vue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Member1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DB9BDD-0D3D-4F07-B2C0-D735ADAA3D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1BB2E-5DD7-426F-96BF-F0935BFE3817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{61405DB3-D596-4D98-A199-CFCBC4B83BA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{61405DB3-D596-4D98-A199-CFCBC4B83BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ツリー作成" sheetId="1" r:id="rId1"/>
-    <sheet name="不明点" sheetId="2" r:id="rId2"/>
-    <sheet name="DB" sheetId="3" r:id="rId3"/>
-    <sheet name="API" sheetId="4" r:id="rId4"/>
+    <sheet name="機能洗い出し" sheetId="5" r:id="rId2"/>
+    <sheet name="不明点" sheetId="2" r:id="rId3"/>
+    <sheet name="DB" sheetId="3" r:id="rId4"/>
+    <sheet name="API" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="115">
   <si>
     <t>ROOT</t>
     <phoneticPr fontId="1"/>
@@ -610,6 +611,107 @@
     <rPh sb="0" eb="2">
       <t>キゾン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規アカウント作成</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツリー作成</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組追加</t>
+    <rPh sb="0" eb="1">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品追加</t>
+    <rPh sb="0" eb="2">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入品追加</t>
+    <rPh sb="0" eb="3">
+      <t>コウニュウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存ツリー追加</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dbmigration直後にデータが0個でエラを起こす</t>
+    <rPh sb="11" eb="13">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pdm_rootnode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>node_name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -682,7 +784,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,6 +800,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +1030,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4099,7 +4213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52E24FF-6755-4099-99CC-5D954E9D4910}">
   <dimension ref="B3:BO87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
@@ -5288,6 +5402,130 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8F05F8-27EC-4B51-9168-C9D99B964F8D}">
+  <dimension ref="B3:AK12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB8" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="26"/>
+    </row>
+    <row r="9" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB9" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+    </row>
+    <row r="10" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB10" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
+      <c r="AI10" s="26"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="26"/>
+    </row>
+    <row r="11" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61305482-AB1D-4CD7-B83E-12434886C630}">
   <dimension ref="C3:I20"/>
   <sheetViews>
@@ -5455,12 +5693,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8932A-2C97-416D-AEC1-61B78AD35FE5}">
-  <dimension ref="A2:K10"/>
+  <dimension ref="A2:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5474,9 +5712,11 @@
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
         <v>73</v>
       </c>
@@ -5486,8 +5726,11 @@
       <c r="I2" s="21" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M2" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -5515,8 +5758,17 @@
       <c r="K3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>75</v>
       </c>
@@ -5535,8 +5787,14 @@
       <c r="K4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -5555,8 +5813,14 @@
       <c r="K5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="N5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>77</v>
       </c>
@@ -5575,8 +5839,14 @@
       <c r="K6" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>78</v>
       </c>
@@ -5590,7 +5860,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F8" t="s">
         <v>87</v>
       </c>
@@ -5598,7 +5868,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F9" t="s">
         <v>88</v>
       </c>
@@ -5606,7 +5876,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F10" t="s">
         <v>89</v>
       </c>
@@ -5620,7 +5890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C7AD404-92D8-437B-8E24-F0DF55646AEE}">
   <dimension ref="B3:F9"/>
   <sheetViews>

--- a/image.xlsx
+++ b/image.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Member1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Member1\Desktop\django_vue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E1BB2E-5DD7-426F-96BF-F0935BFE3817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DA5C7A-D955-4EC0-B088-23A81BCC4CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{61405DB3-D596-4D98-A199-CFCBC4B83BA3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{61405DB3-D596-4D98-A199-CFCBC4B83BA3}"/>
   </bookViews>
   <sheets>
     <sheet name="ツリー作成" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="126">
   <si>
     <t>ROOT</t>
     <phoneticPr fontId="1"/>
@@ -712,6 +712,62 @@
   </si>
   <si>
     <t>node_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>階層（深さ）</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>親のID</t>
+    <rPh sb="0" eb="1">
+      <t>オヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pdm_codeのID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルートノード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>child_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子のID</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -956,7 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,9 +1089,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5403,7 +5456,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC8F05F8-27EC-4B51-9168-C9D99B964F8D}">
-  <dimension ref="B3:AK12"/>
+  <dimension ref="B3:AB12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
@@ -5411,7 +5464,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.4">
       <c r="G3" t="s">
         <v>103</v>
       </c>
@@ -5419,7 +5472,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>101</v>
       </c>
@@ -5430,17 +5483,17 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:28" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C8" s="25" t="s">
         <v>106</v>
       </c>
@@ -5450,20 +5503,11 @@
       <c r="L8" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AB8" s="26" t="s">
+      <c r="AB8" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-    </row>
-    <row r="9" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="2:28" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C9" s="25" t="s">
         <v>107</v>
       </c>
@@ -5473,20 +5517,11 @@
       <c r="L9" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AB9" s="26" t="s">
+      <c r="AB9" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26"/>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26"/>
-    </row>
-    <row r="10" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="2:28" s="25" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C10" s="25" t="s">
         <v>108</v>
       </c>
@@ -5496,25 +5531,16 @@
       <c r="L10" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="AB10" s="26" t="s">
+      <c r="AB10" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="26"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="26"/>
-    </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
         <v>110</v>
       </c>
@@ -5695,10 +5721,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8932A-2C97-416D-AEC1-61B78AD35FE5}">
-  <dimension ref="A2:O10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5706,6 +5732,7 @@
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.125" customWidth="1"/>
     <col min="6" max="6" width="15.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
@@ -5716,21 +5743,32 @@
     <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="F2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -5740,147 +5778,171 @@
       <c r="C3" t="s">
         <v>80</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" t="s">
         <v>79</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>74</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>80</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>79</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>74</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>80</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>79</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>74</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" t="s">
         <v>83</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>80</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>87</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>90</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>114</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>76</v>
       </c>
       <c r="C5" t="s">
         <v>80</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" t="s">
         <v>84</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>88</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>90</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>87</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>80</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>92</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>88</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
-      <c r="F7" t="s">
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="F8" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
         <v>87</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="F9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
         <v>88</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="F10" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
         <v>89</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>80</v>
       </c>
     </row>
